--- a/swing_strategy_vix_sim_20260112.xlsx
+++ b/swing_strategy_vix_sim_20260112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>failure_stop</t>
+          <t>entry_price</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>hard_stop</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>target_profit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>rs_rank</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hard_stop</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>target_profit</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -558,61 +558,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRIM</t>
+          <t>DAVE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>129.95</v>
+        <v>239.35</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>127.28 - 128.65</t>
+          <t>235.76 - 240.79</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>123.26</v>
+        <v>240.79</v>
       </c>
       <c r="F2" t="n">
-        <v>85.06</v>
+        <v>232.17</v>
       </c>
       <c r="G2" t="n">
-        <v>123.26</v>
+        <v>287.22</v>
       </c>
       <c r="H2" t="n">
-        <v>155.94</v>
+        <v>93.16</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.62</v>
+        <v>196.58</v>
       </c>
       <c r="K2" t="n">
-        <v>0.62</v>
+        <v>210.33</v>
       </c>
       <c r="L2" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="M2" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="N2" t="n">
-        <v>54032351</v>
+        <v>12190000</v>
       </c>
       <c r="O2" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="P2" t="n">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>7113358848</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
+        <v>3088248576</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -623,7 +619,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -640,64 +636,64 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>PRIM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>184.86</v>
+        <v>129.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>182.09 - 183.01</t>
+          <t>128.00 - 130.73</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>177.92</v>
+        <v>130.73</v>
       </c>
       <c r="F3" t="n">
-        <v>69.15000000000001</v>
+        <v>126.05</v>
       </c>
       <c r="G3" t="n">
-        <v>177.92</v>
+        <v>155.94</v>
       </c>
       <c r="H3" t="n">
-        <v>221.83</v>
+        <v>85.06</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="K3" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="L3" t="n">
-        <v>0.62</v>
+        <v>0.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0.19</v>
       </c>
       <c r="N3" t="n">
-        <v>24305000000</v>
+        <v>54032351</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P3" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>4499934543872</v>
+        <v>7113358848</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -710,7 +706,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -720,71 +716,71 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>203.17</v>
+        <v>369.81</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>198.98 - 201.14</t>
+          <t>364.26 - 372.03</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>192.7</v>
+        <v>372.03</v>
       </c>
       <c r="F4" t="n">
-        <v>39.13</v>
+        <v>358.72</v>
       </c>
       <c r="G4" t="n">
-        <v>192.7</v>
+        <v>443.77</v>
       </c>
       <c r="H4" t="n">
-        <v>243.8</v>
+        <v>82.34</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="L4" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="N4" t="n">
-        <v>1628041540</v>
+        <v>38759382</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>330769203200</v>
+        <v>22025291776</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -802,12 +798,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -819,59 +815,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.4</v>
+        <v>184.86</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.68 - 20.20</t>
+          <t>182.09 - 185.97</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.28</v>
+        <v>185.97</v>
       </c>
       <c r="F5" t="n">
-        <v>96.66</v>
+        <v>179.32</v>
       </c>
       <c r="G5" t="n">
-        <v>18.61</v>
+        <v>221.83</v>
       </c>
       <c r="H5" t="n">
-        <v>24.48</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.47</v>
+        <v>0.65</v>
       </c>
       <c r="K5" t="n">
-        <v>2.42</v>
+        <v>0.67</v>
       </c>
       <c r="L5" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>642106588</v>
+        <v>24305000000</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>13100980224</v>
+        <v>4499934543872</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -894,7 +890,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>多头拥挤</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -906,59 +902,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>329.14</v>
+        <v>203.17</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>325.42 - 325.85</t>
+          <t>200.12 - 204.39</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>307.4</v>
+        <v>204.39</v>
       </c>
       <c r="F6" t="n">
-        <v>90.19</v>
+        <v>197.08</v>
       </c>
       <c r="G6" t="n">
-        <v>319.84</v>
+        <v>243.8</v>
       </c>
       <c r="H6" t="n">
-        <v>394.97</v>
+        <v>39.13</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="K6" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="M6" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5407000000</v>
+        <v>1628041540</v>
       </c>
       <c r="O6" t="n">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="P6" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>3973383454720</v>
+        <v>330769203200</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -976,7 +972,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -993,57 +989,61 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>199.63</v>
+        <v>92.25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>197.39 - 197.63</t>
+          <t>90.87 - 92.80</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>194.04</v>
+        <v>92.8</v>
       </c>
       <c r="F7" t="n">
-        <v>76.23</v>
+        <v>89.48</v>
       </c>
       <c r="G7" t="n">
-        <v>194.04</v>
+        <v>110.7</v>
       </c>
       <c r="H7" t="n">
-        <v>239.56</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0.77</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.65</v>
+        <v>1.47</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.27</v>
+        <v>0.62</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="N7" t="n">
-        <v>78922362</v>
+        <v>504888275</v>
       </c>
       <c r="O7" t="n">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
       <c r="P7" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="Q7" t="n">
-        <v>17904197632</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
+        <v>46959661056</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1076,59 +1076,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>198.52</v>
+        <v>20.4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>194.84 - 196.53</t>
+          <t>20.09 - 20.52</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>189.31</v>
+        <v>20.52</v>
       </c>
       <c r="F8" t="n">
-        <v>42.63</v>
+        <v>19.79</v>
       </c>
       <c r="G8" t="n">
-        <v>189.31</v>
+        <v>24.48</v>
       </c>
       <c r="H8" t="n">
-        <v>238.22</v>
+        <v>96.66</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.95</v>
+        <v>4.47</v>
       </c>
       <c r="K8" t="n">
-        <v>0.91</v>
+        <v>2.42</v>
       </c>
       <c r="L8" t="n">
-        <v>0.14</v>
+        <v>0.77</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2873130000</v>
+        <v>642106588</v>
       </c>
       <c r="O8" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.46</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>570373767168</v>
+        <v>13100980224</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>downtrend</t>
+          <t>range</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>多头拥挤</t>
         </is>
       </c>
     </row>
@@ -1163,57 +1163,61 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>TFPM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17.21</v>
+        <v>35.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.77 - 17.04</t>
+          <t>34.57 - 35.31</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.12</v>
+        <v>35.31</v>
       </c>
       <c r="F9" t="n">
-        <v>96.95</v>
+        <v>34.05</v>
       </c>
       <c r="G9" t="n">
-        <v>16.12</v>
+        <v>42.12</v>
       </c>
       <c r="H9" t="n">
-        <v>20.65</v>
+        <v>91.97</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.76</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.77</v>
+        <v>1.04</v>
       </c>
       <c r="L9" t="n">
-        <v>0.61</v>
+        <v>0.27</v>
       </c>
       <c r="M9" t="n">
         <v>0.11</v>
       </c>
       <c r="N9" t="n">
-        <v>592641204</v>
+        <v>206561506</v>
       </c>
       <c r="O9" t="n">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.46</v>
+        <v>0.03</v>
       </c>
       <c r="Q9" t="n">
-        <v>10506586112</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>7185598976</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1224,12 +1228,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1246,61 +1250,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>132.38</v>
+        <v>647.72</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>130.21 - 131.06</t>
+          <t>638.00 - 651.61</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>124.77</v>
+        <v>651.61</v>
       </c>
       <c r="F10" t="n">
-        <v>87.26000000000001</v>
+        <v>628.29</v>
       </c>
       <c r="G10" t="n">
-        <v>126.97</v>
+        <v>777.26</v>
       </c>
       <c r="H10" t="n">
-        <v>158.86</v>
+        <v>91.33</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05</v>
+        <v>0.92</v>
       </c>
       <c r="K10" t="n">
-        <v>0.11</v>
+        <v>0.96</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2</v>
+        <v>2.42</v>
       </c>
       <c r="N10" t="n">
-        <v>198853187</v>
+        <v>307597000</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>0.83</v>
       </c>
       <c r="P10" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>27245268992</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+        <v>241588240384</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>仅跟踪</t>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1328,60 +1328,60 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>204.1</v>
+        <v>329.14</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>203.81 - 202.06</t>
+          <t>324.20 - 331.11</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>190.55</v>
+        <v>331.11</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43000000000001</v>
+        <v>319.26</v>
       </c>
       <c r="G11" t="n">
-        <v>203.36</v>
+        <v>394.97</v>
       </c>
       <c r="H11" t="n">
-        <v>244.92</v>
+        <v>90.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.53</v>
+        <v>0.33</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.51</v>
+        <v>0.35</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.09</v>
+        <v>0.16</v>
       </c>
       <c r="M11" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="N11" t="n">
-        <v>250106129</v>
+        <v>5407000000</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>0.61</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>51089178624</v>
+        <v>3973383454720</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1408,67 +1408,67 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>VIK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>150.96</v>
+        <v>71.95</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>148.69 - 149.45</t>
+          <t>70.87 - 72.38</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>145.3</v>
+        <v>72.38</v>
       </c>
       <c r="F12" t="n">
-        <v>25.51</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>145.3</v>
+        <v>86.34</v>
       </c>
       <c r="H12" t="n">
-        <v>181.15</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M12" t="n">
+        <v>86.04000000000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>315839182</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2387324434</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.12</v>
-      </c>
       <c r="P12" t="n">
-        <v>-0.38</v>
+        <v>-0.19</v>
       </c>
       <c r="Q12" t="n">
-        <v>360390524928</v>
+        <v>32130695168</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1490,12 +1490,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -1507,80 +1507,2100 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORLA</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.21</v>
+        <v>120.91</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13.80 - 14.07</t>
+          <t>119.10 - 121.64</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.18</v>
+        <v>121.64</v>
       </c>
       <c r="F13" t="n">
-        <v>92.64</v>
+        <v>117.29</v>
       </c>
       <c r="G13" t="n">
-        <v>13.18</v>
+        <v>145.09</v>
       </c>
       <c r="H13" t="n">
-        <v>17.05</v>
+        <v>79.06</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>43649806</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5185156608</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TKO</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>199.63</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>196.64 - 200.83</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>200.83</v>
+      </c>
+      <c r="F14" t="n">
+        <v>193.64</v>
+      </c>
+      <c r="G14" t="n">
+        <v>239.56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>76.23</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>78922362</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17904197632</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>trend_pullback</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.31 - 31.98</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30.84</v>
+      </c>
+      <c r="G15" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>73</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>70506819</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2234361088</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EMA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.16 - 49.18</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="K16" t="n">
+        <v>75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N16" t="n">
+        <v>301745499</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14809669632</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>强趋势回撤</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>64.23</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>63.27 - 64.62</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="F17" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>77.08</v>
+      </c>
+      <c r="H17" t="n">
+        <v>71.28</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>111765032</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7175314944</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JHG</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.04 - 48.05</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="G18" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="H18" t="n">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>149399212</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7359256576</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>198.52</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>195.54 - 199.71</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>199.71</v>
+      </c>
+      <c r="F19" t="n">
+        <v>192.56</v>
+      </c>
+      <c r="G19" t="n">
+        <v>238.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2873130000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>570373767168</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>downtrend</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IAG</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.95 - 17.31</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="H20" t="n">
+        <v>96.95</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>592641204</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>10506586112</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GCT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41.17 - 42.05</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>93.28</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>28980012</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1569130624</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>POWL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>365.49</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>360.01 - 367.68</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>367.68</v>
+      </c>
+      <c r="F22" t="n">
+        <v>354.52</v>
+      </c>
+      <c r="G22" t="n">
+        <v>438.59</v>
+      </c>
+      <c r="H22" t="n">
+        <v>87.34</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12092083</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4121707264</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NSSC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>41.52 - 42.40</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="G23" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="H23" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N23" t="n">
+        <v>35664324</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1525006464</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217.26</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>214.00 - 218.56</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>218.56</v>
+      </c>
+      <c r="F24" t="n">
+        <v>210.74</v>
+      </c>
+      <c r="G24" t="n">
+        <v>260.71</v>
+      </c>
+      <c r="H24" t="n">
+        <v>91.84999999999999</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N24" t="n">
+        <v>156608303</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>31639726080</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>552.09</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>543.81 - 555.40</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>555.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>535.52</v>
+      </c>
+      <c r="G25" t="n">
+        <v>662.51</v>
+      </c>
+      <c r="H25" t="n">
+        <v>87.63</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N25" t="n">
+        <v>138036253</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>75010277376</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>132.38</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>130.39 - 133.17</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>133.17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>158.86</v>
+      </c>
+      <c r="H26" t="n">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>198853187</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>27245268992</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GSL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.16 - 35.91</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="G27" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="H27" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N27" t="n">
+        <v>35770652</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1238737664</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>201.04 - 205.32</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>205.32</v>
+      </c>
+      <c r="F28" t="n">
+        <v>197.97</v>
+      </c>
+      <c r="G28" t="n">
+        <v>244.92</v>
+      </c>
+      <c r="H28" t="n">
+        <v>79.43000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N28" t="n">
+        <v>250106129</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>51089178624</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>控盘减弱预警</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TXNM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>58.07 - 59.30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>57.18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>70.73999999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>108921356</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6426360320</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>150.96</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>148.70 - 151.87</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>151.87</v>
+      </c>
+      <c r="F30" t="n">
+        <v>146.44</v>
+      </c>
+      <c r="G30" t="n">
+        <v>181.15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2387324434</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>360390524928</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>仅跟踪</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>量价中性</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>108.99</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>107.36 - 109.64</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>109.64</v>
+      </c>
+      <c r="F31" t="n">
+        <v>105.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>130.79</v>
+      </c>
+      <c r="H31" t="n">
+        <v>95.47</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1091262981</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>119088422912</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>100</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ORLA</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.00 - 14.30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="G32" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
         <v>1.33</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K32" t="n">
         <v>1.33</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L32" t="n">
         <v>1.77</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M32" t="n">
         <v>0.1</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N32" t="n">
         <v>339896220</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O32" t="n">
         <v>0.75</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P32" t="n">
         <v>0.74</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q32" t="n">
         <v>4753448448</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>允许建仓</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="T32" t="n">
         <v>100</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>明确吸筹</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>strong_uptrend</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KALU</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>123.07</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>121.22 - 123.81</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>123.81</v>
+      </c>
+      <c r="F33" t="n">
+        <v>119.38</v>
+      </c>
+      <c r="G33" t="n">
+        <v>147.68</v>
+      </c>
+      <c r="H33" t="n">
+        <v>90.31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N33" t="n">
+        <v>16206255</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1905045376</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>100</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PACS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>40.65 - 41.52</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="F34" t="n">
+        <v>40.03</v>
+      </c>
+      <c r="G34" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="H34" t="n">
+        <v>98.36</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N34" t="n">
+        <v>156615144</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5968603136</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>100</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SII</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>105.59</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>104.01 - 106.22</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>106.22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>102.42</v>
+      </c>
+      <c r="G35" t="n">
+        <v>126.71</v>
+      </c>
+      <c r="H35" t="n">
+        <v>93.12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N35" t="n">
+        <v>25786258</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2585072384</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>100</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>136.26</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>134.22 - 137.08</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>137.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>132.17</v>
+      </c>
+      <c r="G36" t="n">
+        <v>163.51</v>
+      </c>
+      <c r="H36" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>278900292</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>38967947264</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>允许建仓</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>92.76000000000001</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RVLV</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>30.34 - 30.98</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="F37" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="G37" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="H37" t="n">
+        <v>75.62</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N37" t="n">
+        <v>40415438</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2128613504</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>回撤建仓</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>强趋势回撤</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>机构偏多</t>
         </is>
